--- a/datenRF4/AFL/i=24,42 Fremdlüfter, Abtriebswelle=22/Prozesse_Stückliste_L1_S4_ i24,42_Fremdlüfter.xlsx
+++ b/datenRF4/AFL/i=24,42 Fremdlüfter, Abtriebswelle=22/Prozesse_Stückliste_L1_S4_ i24,42_Fremdlüfter.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="123">
   <si>
     <t>Sequenz</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Zylinderkopfschrauben M4x15 </t>
+  </si>
+  <si>
+    <t>St</t>
   </si>
 </sst>
 </file>
@@ -910,7 +913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -987,9 +990,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
@@ -1048,6 +1048,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1321,7 +1333,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1332,10 +1344,10 @@
   <dimension ref="A1:U114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E111" sqref="E111:G111"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1367,60 +1379,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="72" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="80" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1">
       <c r="A3" s="30" t="s">
@@ -1490,8 +1502,8 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="22"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="23">
         <v>0</v>
       </c>
@@ -1563,7 +1575,7 @@
       <c r="E6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>96</v>
       </c>
       <c r="G6" s="3"/>
@@ -1612,10 +1624,10 @@
       <c r="D7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="59" t="s">
         <v>86</v>
       </c>
       <c r="G7" s="29"/>
@@ -1637,17 +1649,19 @@
       <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="83">
+        <v>3</v>
+      </c>
       <c r="C8" s="20">
         <v>1</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="60" t="s">
         <v>85</v>
       </c>
       <c r="G8" s="21">
@@ -1817,7 +1831,7 @@
       <c r="E15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="58" t="s">
         <v>96</v>
       </c>
       <c r="G15" s="3"/>
@@ -1866,10 +1880,10 @@
       <c r="D16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="59" t="s">
         <v>86</v>
       </c>
       <c r="G16" s="29"/>
@@ -1888,23 +1902,25 @@
       <c r="T16" s="28"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="49">
-        <v>1</v>
-      </c>
-      <c r="B17" s="25"/>
+      <c r="A17" s="48">
+        <v>1</v>
+      </c>
+      <c r="B17" s="81">
+        <v>3</v>
+      </c>
       <c r="C17" s="22">
         <v>1</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="50">
         <v>23255</v>
       </c>
       <c r="H17" s="23"/>
@@ -1925,7 +1941,9 @@
       <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="82">
+        <v>3</v>
+      </c>
       <c r="C18" s="12">
         <v>1</v>
       </c>
@@ -1935,7 +1953,7 @@
       <c r="E18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="63" t="s">
+      <c r="F18" s="62" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="14">
@@ -2063,7 +2081,7 @@
       <c r="E23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="58" t="s">
         <v>96</v>
       </c>
       <c r="G23" s="3"/>
@@ -2100,25 +2118,25 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="15" thickBot="1">
-      <c r="A24" s="53">
+      <c r="A24" s="52">
         <v>2</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="53">
         <v>2</v>
       </c>
-      <c r="C24" s="52">
-        <v>1</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="52" t="s">
+      <c r="C24" s="51">
+        <v>1</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="64" t="s">
+      <c r="F24" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="55"/>
+      <c r="G24" s="54"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -2134,23 +2152,25 @@
       <c r="T24" s="28"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="49">
-        <v>1</v>
-      </c>
-      <c r="B25" s="25"/>
+      <c r="A25" s="48">
+        <v>1</v>
+      </c>
+      <c r="B25" s="25">
+        <v>3</v>
+      </c>
       <c r="C25" s="22">
         <v>1</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="62" t="s">
+      <c r="F25" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="50">
         <v>23255</v>
       </c>
       <c r="H25" s="23"/>
@@ -2171,7 +2191,9 @@
       <c r="A26" s="5">
         <v>2</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="25">
+        <v>3</v>
+      </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
@@ -2181,7 +2203,7 @@
       <c r="E26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="64" t="s">
         <v>67</v>
       </c>
       <c r="G26" s="9">
@@ -2205,7 +2227,9 @@
       <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="84">
+        <v>3</v>
+      </c>
       <c r="C27" s="12">
         <v>8</v>
       </c>
@@ -2215,7 +2239,7 @@
       <c r="E27" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="62" t="s">
         <v>69</v>
       </c>
       <c r="G27" s="14">
@@ -2385,7 +2409,7 @@
       <c r="E34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="58" t="s">
         <v>96</v>
       </c>
       <c r="G34" s="3"/>
@@ -2422,25 +2446,25 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15" thickBot="1">
-      <c r="A35" s="53">
+      <c r="A35" s="52">
         <v>2</v>
       </c>
-      <c r="B35" s="54">
+      <c r="B35" s="53">
         <v>2</v>
       </c>
-      <c r="C35" s="52">
-        <v>1</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="52" t="s">
+      <c r="C35" s="51">
+        <v>1</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="55"/>
+      <c r="G35" s="54"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
@@ -2456,23 +2480,25 @@
       <c r="T35" s="28"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="49">
-        <v>1</v>
-      </c>
-      <c r="B36" s="25"/>
+      <c r="A36" s="48">
+        <v>1</v>
+      </c>
+      <c r="B36" s="81">
+        <v>3</v>
+      </c>
       <c r="C36" s="22">
         <v>1</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="62" t="s">
+      <c r="F36" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="51">
+      <c r="G36" s="50">
         <v>23255</v>
       </c>
       <c r="H36" s="23"/>
@@ -2493,7 +2519,9 @@
       <c r="A37" s="5">
         <v>2</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="81">
+        <v>3</v>
+      </c>
       <c r="C37" s="7">
         <v>1</v>
       </c>
@@ -2503,7 +2531,7 @@
       <c r="E37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="65" t="s">
+      <c r="F37" s="64" t="s">
         <v>67</v>
       </c>
       <c r="G37" s="9">
@@ -2527,7 +2555,9 @@
       <c r="A38" s="10">
         <v>3</v>
       </c>
-      <c r="B38" s="11"/>
+      <c r="B38" s="82">
+        <v>3</v>
+      </c>
       <c r="C38" s="12">
         <v>8</v>
       </c>
@@ -2537,7 +2567,7 @@
       <c r="E38" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="63" t="s">
+      <c r="F38" s="62" t="s">
         <v>69</v>
       </c>
       <c r="G38" s="14">
@@ -2728,7 +2758,7 @@
       <c r="E46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="59" t="s">
+      <c r="F46" s="58" t="s">
         <v>96</v>
       </c>
       <c r="G46" s="3"/>
@@ -2767,25 +2797,25 @@
       <c r="T46" s="28"/>
     </row>
     <row r="47" spans="1:20" ht="29.5" thickBot="1">
-      <c r="A47" s="53">
+      <c r="A47" s="52">
         <v>2</v>
       </c>
-      <c r="B47" s="54">
+      <c r="B47" s="53">
         <v>2</v>
       </c>
-      <c r="C47" s="52">
-        <v>1</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="52" t="s">
+      <c r="C47" s="51">
+        <v>1</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="64" t="s">
+      <c r="F47" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="G47" s="55"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
@@ -2807,23 +2837,25 @@
       <c r="T47" s="28"/>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="49">
-        <v>1</v>
-      </c>
-      <c r="B48" s="25"/>
+      <c r="A48" s="48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="81">
+        <v>3</v>
+      </c>
       <c r="C48" s="22">
         <v>1</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="62" t="s">
+      <c r="F48" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="G48" s="51">
+      <c r="G48" s="50">
         <v>23255</v>
       </c>
       <c r="H48" s="23"/>
@@ -2844,7 +2876,9 @@
       <c r="A49" s="5">
         <v>2</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="81">
+        <v>3</v>
+      </c>
       <c r="C49" s="7">
         <v>1</v>
       </c>
@@ -2854,7 +2888,7 @@
       <c r="E49" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="65" t="s">
+      <c r="F49" s="64" t="s">
         <v>67</v>
       </c>
       <c r="G49" s="9">
@@ -2878,7 +2912,9 @@
       <c r="A50" s="10">
         <v>3</v>
       </c>
-      <c r="B50" s="11"/>
+      <c r="B50" s="82">
+        <v>3</v>
+      </c>
       <c r="C50" s="12">
         <v>8</v>
       </c>
@@ -2888,7 +2924,7 @@
       <c r="E50" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="63" t="s">
+      <c r="F50" s="62" t="s">
         <v>69</v>
       </c>
       <c r="G50" s="14">
@@ -2953,7 +2989,7 @@
       <c r="E52" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="59" t="s">
+      <c r="F52" s="58" t="s">
         <v>96</v>
       </c>
       <c r="G52" s="3"/>
@@ -3005,7 +3041,7 @@
       <c r="E53" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F53" s="66" t="s">
+      <c r="F53" s="65" t="s">
         <v>86</v>
       </c>
       <c r="G53" s="8"/>
@@ -3024,17 +3060,25 @@
       <c r="T53" s="28"/>
     </row>
     <row r="54" spans="1:20" ht="15" thickBot="1">
-      <c r="A54" s="53"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52" t="s">
+      <c r="A54" s="52">
+        <v>3</v>
+      </c>
+      <c r="B54" s="53">
+        <v>2</v>
+      </c>
+      <c r="C54" s="51">
+        <v>1</v>
+      </c>
+      <c r="D54" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="F54" s="64" t="s">
+      <c r="F54" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="G54" s="55"/>
+      <c r="G54" s="54"/>
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
@@ -3050,17 +3094,25 @@
       <c r="T54" s="28"/>
     </row>
     <row r="55" spans="1:20" ht="15" thickBot="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
+      <c r="A55" s="19">
+        <v>1</v>
+      </c>
+      <c r="B55" s="20">
+        <v>3</v>
+      </c>
+      <c r="C55" s="20">
+        <v>1</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="E55" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F55" s="67" t="s">
+      <c r="F55" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="G55" s="56">
+      <c r="G55" s="55">
         <v>11322</v>
       </c>
       <c r="H55" s="23"/>
@@ -3114,7 +3166,7 @@
       <c r="E57" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="58" t="s">
         <v>96</v>
       </c>
       <c r="G57" s="3"/>
@@ -3166,7 +3218,7 @@
       <c r="E58" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="66" t="s">
+      <c r="F58" s="65" t="s">
         <v>86</v>
       </c>
       <c r="G58" s="8"/>
@@ -3185,21 +3237,25 @@
       <c r="T58" s="28"/>
     </row>
     <row r="59" spans="1:20" ht="15" thickBot="1">
-      <c r="A59" s="53"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52">
-        <v>1</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" s="52" t="s">
+      <c r="A59" s="52">
+        <v>3</v>
+      </c>
+      <c r="B59" s="53">
+        <v>2</v>
+      </c>
+      <c r="C59" s="51">
+        <v>1</v>
+      </c>
+      <c r="D59" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="F59" s="64" t="s">
+      <c r="F59" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="G59" s="55"/>
+      <c r="G59" s="54"/>
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
       <c r="J59" s="23"/>
@@ -3215,8 +3271,12 @@
       <c r="T59" s="28"/>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="49"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="48">
+        <v>1</v>
+      </c>
+      <c r="B60" s="22">
+        <v>3</v>
+      </c>
       <c r="C60" s="22">
         <v>1</v>
       </c>
@@ -3226,10 +3286,10 @@
       <c r="E60" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F60" s="68" t="s">
+      <c r="F60" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="G60" s="57">
+      <c r="G60" s="56">
         <v>11322</v>
       </c>
       <c r="H60" s="23"/>
@@ -3247,8 +3307,12 @@
       <c r="T60" s="28"/>
     </row>
     <row r="61" spans="1:20" ht="15" thickBot="1">
-      <c r="A61" s="10"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="10">
+        <v>2</v>
+      </c>
+      <c r="B61" s="12">
+        <v>3</v>
+      </c>
       <c r="C61" s="37">
         <v>6</v>
       </c>
@@ -3258,7 +3322,7 @@
       <c r="E61" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="69" t="s">
+      <c r="F61" s="68" t="s">
         <v>69</v>
       </c>
       <c r="G61" s="14">
@@ -3315,7 +3379,7 @@
       <c r="E63" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F63" s="59" t="s">
+      <c r="F63" s="58" t="s">
         <v>96</v>
       </c>
       <c r="G63" s="3"/>
@@ -3369,7 +3433,7 @@
       <c r="E64" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F64" s="66" t="s">
+      <c r="F64" s="65" t="s">
         <v>86</v>
       </c>
       <c r="G64" s="8"/>
@@ -3402,21 +3466,25 @@
       <c r="T64" s="28"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1">
-      <c r="A65" s="53"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52">
-        <v>1</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E65" s="52" t="s">
+      <c r="A65" s="52">
+        <v>3</v>
+      </c>
+      <c r="B65" s="53">
+        <v>2</v>
+      </c>
+      <c r="C65" s="51">
+        <v>1</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="F65" s="64" t="s">
+      <c r="F65" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="G65" s="55"/>
+      <c r="G65" s="54"/>
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
       <c r="J65" s="23"/>
@@ -3432,8 +3500,12 @@
       <c r="T65" s="28"/>
     </row>
     <row r="66" spans="1:20">
-      <c r="A66" s="49"/>
-      <c r="B66" s="22"/>
+      <c r="A66" s="48">
+        <v>1</v>
+      </c>
+      <c r="B66" s="22">
+        <v>3</v>
+      </c>
       <c r="C66" s="22">
         <v>1</v>
       </c>
@@ -3443,10 +3515,10 @@
       <c r="E66" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F66" s="68" t="s">
+      <c r="F66" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="G66" s="57">
+      <c r="G66" s="56">
         <v>11322</v>
       </c>
       <c r="H66" s="23"/>
@@ -3464,8 +3536,12 @@
       <c r="T66" s="28"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1">
-      <c r="A67" s="10"/>
-      <c r="B67" s="12"/>
+      <c r="A67" s="10">
+        <v>2</v>
+      </c>
+      <c r="B67" s="12">
+        <v>3</v>
+      </c>
       <c r="C67" s="37">
         <v>6</v>
       </c>
@@ -3475,7 +3551,7 @@
       <c r="E67" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F67" s="69" t="s">
+      <c r="F67" s="68" t="s">
         <v>69</v>
       </c>
       <c r="G67" s="14">
@@ -3648,7 +3724,7 @@
       <c r="E73" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F73" s="59" t="s">
+      <c r="F73" s="58" t="s">
         <v>96</v>
       </c>
       <c r="G73" s="3"/>
@@ -3700,7 +3776,7 @@
       <c r="E74" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F74" s="66" t="s">
+      <c r="F74" s="65" t="s">
         <v>86</v>
       </c>
       <c r="G74" s="8"/>
@@ -3719,14 +3795,22 @@
       <c r="T74" s="28"/>
     </row>
     <row r="75" spans="1:20">
-      <c r="A75" s="5"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
+      <c r="A75" s="5">
+        <v>3</v>
+      </c>
+      <c r="B75" s="6">
+        <v>2</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="E75" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F75" s="66" t="s">
+      <c r="F75" s="65" t="s">
         <v>90</v>
       </c>
       <c r="G75" s="8"/>
@@ -3745,25 +3829,25 @@
       <c r="T75" s="28"/>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1">
-      <c r="A76" s="53">
-        <v>3</v>
-      </c>
-      <c r="B76" s="54">
+      <c r="A76" s="52">
+        <v>4</v>
+      </c>
+      <c r="B76" s="53">
         <v>2</v>
       </c>
-      <c r="C76" s="52">
-        <v>1</v>
-      </c>
-      <c r="D76" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E76" s="52" t="s">
+      <c r="C76" s="51">
+        <v>1</v>
+      </c>
+      <c r="D76" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F76" s="64" t="s">
+      <c r="F76" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G76" s="55"/>
+      <c r="G76" s="54"/>
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
       <c r="J76" s="23"/>
@@ -3782,17 +3866,19 @@
       <c r="A77" s="19">
         <v>1</v>
       </c>
-      <c r="B77" s="47"/>
+      <c r="B77" s="83">
+        <v>3</v>
+      </c>
       <c r="C77" s="20">
         <v>1</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E77" s="48" t="s">
+      <c r="E77" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="F77" s="61" t="s">
+      <c r="F77" s="60" t="s">
         <v>95</v>
       </c>
       <c r="G77" s="21">
@@ -4070,7 +4156,7 @@
       <c r="E88" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F88" s="59" t="s">
+      <c r="F88" s="58" t="s">
         <v>96</v>
       </c>
       <c r="G88" s="3"/>
@@ -4122,7 +4208,7 @@
       <c r="E89" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F89" s="66" t="s">
+      <c r="F89" s="65" t="s">
         <v>86</v>
       </c>
       <c r="G89" s="8"/>
@@ -4141,14 +4227,22 @@
       <c r="T89" s="28"/>
     </row>
     <row r="90" spans="1:20">
-      <c r="A90" s="5"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
+      <c r="A90" s="5">
+        <v>3</v>
+      </c>
+      <c r="B90" s="6">
+        <v>2</v>
+      </c>
+      <c r="C90" s="7">
+        <v>1</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E90" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F90" s="66" t="s">
+      <c r="F90" s="65" t="s">
         <v>90</v>
       </c>
       <c r="G90" s="8"/>
@@ -4167,25 +4261,25 @@
       <c r="T90" s="28"/>
     </row>
     <row r="91" spans="1:20" ht="15" thickBot="1">
-      <c r="A91" s="53">
-        <v>3</v>
-      </c>
-      <c r="B91" s="54">
+      <c r="A91" s="52">
+        <v>4</v>
+      </c>
+      <c r="B91" s="53">
         <v>2</v>
       </c>
-      <c r="C91" s="52">
-        <v>1</v>
-      </c>
-      <c r="D91" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E91" s="52" t="s">
+      <c r="C91" s="51">
+        <v>1</v>
+      </c>
+      <c r="D91" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E91" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F91" s="64" t="s">
+      <c r="F91" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G91" s="55"/>
+      <c r="G91" s="54"/>
       <c r="H91" s="23"/>
       <c r="I91" s="23"/>
       <c r="J91" s="23"/>
@@ -4201,23 +4295,25 @@
       <c r="T91" s="28"/>
     </row>
     <row r="92" spans="1:20" ht="29">
-      <c r="A92" s="49">
-        <v>1</v>
-      </c>
-      <c r="B92" s="25"/>
+      <c r="A92" s="48">
+        <v>1</v>
+      </c>
+      <c r="B92" s="81">
+        <v>3</v>
+      </c>
       <c r="C92" s="22">
         <v>1</v>
       </c>
       <c r="D92" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E92" s="50" t="s">
+      <c r="E92" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="F92" s="62" t="s">
+      <c r="F92" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="G92" s="51">
+      <c r="G92" s="50">
         <v>11111</v>
       </c>
       <c r="H92" s="23"/>
@@ -4238,7 +4334,9 @@
       <c r="A93" s="10">
         <v>2</v>
       </c>
-      <c r="B93" s="11"/>
+      <c r="B93" s="82">
+        <v>3</v>
+      </c>
       <c r="C93" s="12">
         <v>2</v>
       </c>
@@ -4248,7 +4346,7 @@
       <c r="E93" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F93" s="63" t="s">
+      <c r="F93" s="62" t="s">
         <v>71</v>
       </c>
       <c r="G93" s="14">
@@ -4334,7 +4432,7 @@
       <c r="E96" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F96" s="59" t="s">
+      <c r="F96" s="58" t="s">
         <v>96</v>
       </c>
       <c r="G96" s="3"/>
@@ -4386,7 +4484,7 @@
       <c r="E97" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F97" s="66" t="s">
+      <c r="F97" s="65" t="s">
         <v>86</v>
       </c>
       <c r="G97" s="8"/>
@@ -4405,14 +4503,22 @@
       <c r="T97" s="28"/>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="5"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
+      <c r="A98" s="5">
+        <v>3</v>
+      </c>
+      <c r="B98" s="6">
+        <v>2</v>
+      </c>
+      <c r="C98" s="7">
+        <v>1</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E98" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F98" s="66" t="s">
+      <c r="F98" s="65" t="s">
         <v>90</v>
       </c>
       <c r="G98" s="8"/>
@@ -4431,25 +4537,25 @@
       <c r="T98" s="28"/>
     </row>
     <row r="99" spans="1:21" ht="15" thickBot="1">
-      <c r="A99" s="53">
-        <v>3</v>
-      </c>
-      <c r="B99" s="54">
+      <c r="A99" s="52">
+        <v>4</v>
+      </c>
+      <c r="B99" s="53">
         <v>2</v>
       </c>
-      <c r="C99" s="52">
-        <v>1</v>
-      </c>
-      <c r="D99" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E99" s="52" t="s">
+      <c r="C99" s="51">
+        <v>1</v>
+      </c>
+      <c r="D99" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E99" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F99" s="64" t="s">
+      <c r="F99" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G99" s="55"/>
+      <c r="G99" s="54"/>
       <c r="H99" s="23"/>
       <c r="I99" s="23"/>
       <c r="J99" s="23"/>
@@ -4465,23 +4571,25 @@
       <c r="T99" s="28"/>
     </row>
     <row r="100" spans="1:21" ht="29">
-      <c r="A100" s="49">
-        <v>1</v>
-      </c>
-      <c r="B100" s="25"/>
+      <c r="A100" s="48">
+        <v>1</v>
+      </c>
+      <c r="B100" s="81">
+        <v>3</v>
+      </c>
       <c r="C100" s="22">
         <v>1</v>
       </c>
       <c r="D100" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E100" s="50" t="s">
+      <c r="E100" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="F100" s="62" t="s">
+      <c r="F100" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="G100" s="51">
+      <c r="G100" s="50">
         <v>11111</v>
       </c>
       <c r="H100" s="23"/>
@@ -4502,7 +4610,9 @@
       <c r="A101" s="10">
         <v>2</v>
       </c>
-      <c r="B101" s="11"/>
+      <c r="B101" s="82">
+        <v>3</v>
+      </c>
       <c r="C101" s="12">
         <v>2</v>
       </c>
@@ -4512,7 +4622,7 @@
       <c r="E101" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F101" s="63" t="s">
+      <c r="F101" s="62" t="s">
         <v>71</v>
       </c>
       <c r="G101" s="14">
@@ -4640,7 +4750,7 @@
       <c r="E106" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F106" s="59" t="s">
+      <c r="F106" s="58" t="s">
         <v>96</v>
       </c>
       <c r="G106" s="3"/>
@@ -4692,7 +4802,7 @@
       <c r="E107" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F107" s="66" t="s">
+      <c r="F107" s="65" t="s">
         <v>86</v>
       </c>
       <c r="G107" s="8"/>
@@ -4711,14 +4821,22 @@
       <c r="T107" s="28"/>
     </row>
     <row r="108" spans="1:21">
-      <c r="A108" s="5"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
+      <c r="A108" s="5">
+        <v>3</v>
+      </c>
+      <c r="B108" s="6">
+        <v>2</v>
+      </c>
+      <c r="C108" s="7">
+        <v>1</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E108" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F108" s="66" t="s">
+      <c r="F108" s="65" t="s">
         <v>90</v>
       </c>
       <c r="G108" s="8"/>
@@ -4737,25 +4855,25 @@
       <c r="T108" s="28"/>
     </row>
     <row r="109" spans="1:21" ht="15" thickBot="1">
-      <c r="A109" s="53">
-        <v>3</v>
-      </c>
-      <c r="B109" s="54">
+      <c r="A109" s="52">
+        <v>4</v>
+      </c>
+      <c r="B109" s="53">
         <v>2</v>
       </c>
-      <c r="C109" s="52">
-        <v>1</v>
-      </c>
-      <c r="D109" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E109" s="52" t="s">
+      <c r="C109" s="51">
+        <v>1</v>
+      </c>
+      <c r="D109" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E109" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F109" s="64" t="s">
+      <c r="F109" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G109" s="55"/>
+      <c r="G109" s="54"/>
       <c r="H109" s="23"/>
       <c r="I109" s="23"/>
       <c r="J109" s="23"/>
@@ -4771,23 +4889,25 @@
       <c r="T109" s="28"/>
     </row>
     <row r="110" spans="1:21" ht="29">
-      <c r="A110" s="49">
-        <v>1</v>
-      </c>
-      <c r="B110" s="25"/>
+      <c r="A110" s="48">
+        <v>1</v>
+      </c>
+      <c r="B110" s="81">
+        <v>3</v>
+      </c>
       <c r="C110" s="22">
         <v>1</v>
       </c>
       <c r="D110" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E110" s="50" t="s">
+      <c r="E110" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="F110" s="62" t="s">
+      <c r="F110" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="G110" s="51">
+      <c r="G110" s="50">
         <v>11111</v>
       </c>
       <c r="H110" s="23"/>
@@ -4808,7 +4928,9 @@
       <c r="A111" s="10">
         <v>2</v>
       </c>
-      <c r="B111" s="11"/>
+      <c r="B111" s="82">
+        <v>3</v>
+      </c>
       <c r="C111" s="12">
         <v>2</v>
       </c>
@@ -4818,7 +4940,7 @@
       <c r="E111" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F111" s="63" t="s">
+      <c r="F111" s="62" t="s">
         <v>71</v>
       </c>
       <c r="G111" s="14">
